--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch2/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch2/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>30588.185</v>
       </c>
       <c r="F2">
-        <v>544.8150000000001</v>
+        <v>300.05</v>
       </c>
       <c r="G2">
+        <v>244.765</v>
+      </c>
+      <c r="H2">
         <v>31133</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>505.199</v>
@@ -926,21 +935,24 @@
         <v>296.801</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>802</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>688.777</v>
@@ -949,21 +961,24 @@
         <v>1025.223</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1714</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>679.95</v>
@@ -972,21 +987,24 @@
         <v>1022.05</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1702</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>692.557</v>
@@ -995,6 +1013,9 @@
         <v>1022.443</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1715</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>54667.675</v>
       </c>
       <c r="F2">
-        <v>32167.325</v>
+        <v>31405.725</v>
       </c>
       <c r="G2">
+        <v>761.6</v>
+      </c>
+      <c r="H2">
         <v>86835</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>24354.955</v>
       </c>
       <c r="F3">
-        <v>39598.045</v>
+        <v>36841.375</v>
       </c>
       <c r="G3">
+        <v>2756.67</v>
+      </c>
+      <c r="H3">
         <v>63953</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>9953.523499999999</v>
       </c>
       <c r="F4">
-        <v>24067.4765</v>
+        <v>23693.3125</v>
       </c>
       <c r="G4">
+        <v>374.164</v>
+      </c>
+      <c r="H4">
         <v>34021</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>23079.948</v>
       </c>
       <c r="F5">
-        <v>32245.052</v>
+        <v>31477.769</v>
       </c>
       <c r="G5">
+        <v>767.283</v>
+      </c>
+      <c r="H5">
         <v>55325</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>47361.977</v>
+        <v>47361.97699999999</v>
       </c>
       <c r="F6">
-        <v>75946.023</v>
+        <v>70568.10000000001</v>
       </c>
       <c r="G6">
+        <v>5377.923</v>
+      </c>
+      <c r="H6">
         <v>123308</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
-        <v>56045.23299999999</v>
+        <v>56045.233</v>
       </c>
       <c r="F7">
-        <v>75916.76700000001</v>
+        <v>70537.466</v>
       </c>
       <c r="G7">
+        <v>5379.301</v>
+      </c>
+      <c r="H7">
         <v>131962</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>40286.782</v>
       </c>
       <c r="F8">
-        <v>64484.218</v>
+        <v>59064.996</v>
       </c>
       <c r="G8">
+        <v>5419.222</v>
+      </c>
+      <c r="H8">
         <v>104771</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>11034.52499999999</v>
+        <v>11034.525</v>
       </c>
       <c r="F9">
-        <v>51103.47500000001</v>
+        <v>50336.94</v>
       </c>
       <c r="G9">
+        <v>766.535</v>
+      </c>
+      <c r="H9">
         <v>62138</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>18215.394</v>
       </c>
       <c r="F2">
-        <v>24310.606</v>
+        <v>21544.05</v>
       </c>
       <c r="G2">
+        <v>2766.556</v>
+      </c>
+      <c r="H2">
         <v>42526</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>42579.6</v>
       </c>
       <c r="F3">
-        <v>28491.4</v>
+        <v>23099.532</v>
       </c>
       <c r="G3">
+        <v>5391.868</v>
+      </c>
+      <c r="H3">
         <v>71071</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>16344.865</v>
       </c>
       <c r="F4">
-        <v>4550.135</v>
+        <v>2331.703</v>
       </c>
       <c r="G4">
+        <v>2218.432</v>
+      </c>
+      <c r="H4">
         <v>20895</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1213.257</v>
@@ -1337,21 +1397,24 @@
         <v>214.743</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1428</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1225.531</v>
@@ -1360,136 +1423,154 @@
         <v>204.469</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1430</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>17739.51</v>
       </c>
       <c r="F7">
-        <v>24358.49</v>
+        <v>21557.039</v>
       </c>
       <c r="G7">
+        <v>2801.451</v>
+      </c>
+      <c r="H7">
         <v>42098</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>17579.085</v>
       </c>
       <c r="F8">
-        <v>24275.915</v>
+        <v>21541.296</v>
       </c>
       <c r="G8">
+        <v>2734.619</v>
+      </c>
+      <c r="H8">
         <v>41855</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>17606.938</v>
       </c>
       <c r="F9">
-        <v>24303.062</v>
+        <v>21539.439</v>
       </c>
       <c r="G9">
+        <v>2763.623</v>
+      </c>
+      <c r="H9">
         <v>41910</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>32405.766</v>
       </c>
       <c r="F10">
-        <v>28559.234</v>
+        <v>23144.185</v>
       </c>
       <c r="G10">
+        <v>5415.049</v>
+      </c>
+      <c r="H10">
         <v>60965</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>16416.19</v>
       </c>
       <c r="F11">
-        <v>4542.81</v>
+        <v>2327.609</v>
       </c>
       <c r="G11">
+        <v>2215.201</v>
+      </c>
+      <c r="H11">
         <v>20959</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1164.163</v>
@@ -1498,21 +1579,24 @@
         <v>219.837</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1384</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1176.635</v>
@@ -1521,6 +1605,9 @@
         <v>206.365</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1383</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>35078.66699999999</v>
+        <v>35078.667</v>
       </c>
       <c r="F2">
-        <v>48783.33300000001</v>
+        <v>43319.209</v>
       </c>
       <c r="G2">
+        <v>5464.124</v>
+      </c>
+      <c r="H2">
         <v>83862</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>59255.00900000001</v>
       </c>
       <c r="F3">
-        <v>57343.99099999999</v>
+        <v>46579.62699999999</v>
       </c>
       <c r="G3">
+        <v>10764.364</v>
+      </c>
+      <c r="H3">
         <v>116599</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>27970.328</v>
       </c>
       <c r="F4">
-        <v>9341.671999999999</v>
+        <v>4866.659</v>
       </c>
       <c r="G4">
+        <v>4475.013</v>
+      </c>
+      <c r="H4">
         <v>37312</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3452.367</v>
@@ -1646,21 +1745,24 @@
         <v>610.633</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4063</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3483.331</v>
@@ -1669,136 +1771,154 @@
         <v>615.6690000000001</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4099</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>45396.10000000001</v>
       </c>
       <c r="F7">
-        <v>48739.89999999999</v>
+        <v>43274.734</v>
       </c>
       <c r="G7">
+        <v>5465.166</v>
+      </c>
+      <c r="H7">
         <v>94136</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>32264.889</v>
       </c>
       <c r="F8">
-        <v>48782.111</v>
+        <v>43319.342</v>
       </c>
       <c r="G8">
+        <v>5462.769</v>
+      </c>
+      <c r="H8">
         <v>81047</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>32193.964</v>
+        <v>32193.96400000001</v>
       </c>
       <c r="F9">
-        <v>48784.036</v>
+        <v>43314.04199999999</v>
       </c>
       <c r="G9">
+        <v>5469.994</v>
+      </c>
+      <c r="H9">
         <v>80978</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>64797.236</v>
       </c>
       <c r="F10">
-        <v>57157.764</v>
+        <v>46407.374</v>
       </c>
       <c r="G10">
+        <v>10750.39</v>
+      </c>
+      <c r="H10">
         <v>121955</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>26031.115</v>
       </c>
       <c r="F11">
-        <v>9388.885</v>
+        <v>4888.148</v>
       </c>
       <c r="G11">
+        <v>4500.737</v>
+      </c>
+      <c r="H11">
         <v>35420</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3492.89</v>
@@ -1807,21 +1927,24 @@
         <v>638.1099999999999</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4131</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3334.112</v>
@@ -1830,6 +1953,9 @@
         <v>653.888</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3988</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>512.21</v>
@@ -1886,21 +2015,24 @@
         <v>104.79</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>1740.482</v>
@@ -1909,21 +2041,24 @@
         <v>109.518</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1850</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>5070.945</v>
@@ -1932,21 +2067,24 @@
         <v>112.055</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>5183</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>2326.922</v>
@@ -1955,21 +2093,24 @@
         <v>94.078</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2421</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>487.956</v>
@@ -1978,21 +2119,24 @@
         <v>96.044</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>494.106</v>
@@ -2001,21 +2145,24 @@
         <v>105.894</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>505.142</v>
@@ -2024,21 +2171,24 @@
         <v>102.858</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>585.6610000000001</v>
@@ -2047,21 +2197,24 @@
         <v>110.339</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>696</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>512.187</v>
@@ -2070,21 +2223,24 @@
         <v>106.813</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>4054.288</v>
@@ -2093,21 +2249,24 @@
         <v>115.712</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>4170</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>2209.587</v>
@@ -2116,21 +2275,24 @@
         <v>92.413</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>2302</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>465.486</v>
@@ -2139,6 +2301,9 @@
         <v>100.514</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>566</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>5647.572</v>
@@ -2195,21 +2363,24 @@
         <v>1508.428</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>7156</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>10694.64</v>
@@ -2218,21 +2389,24 @@
         <v>2919.36</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>13614</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>3899.646</v>
@@ -2241,21 +2415,24 @@
         <v>1272.354</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>5172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>523.146</v>
@@ -2264,21 +2441,24 @@
         <v>93.854</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>463.712</v>
@@ -2287,21 +2467,24 @@
         <v>102.288</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>5459.124</v>
@@ -2310,21 +2493,24 @@
         <v>1503.876</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6963</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>5066.181</v>
@@ -2333,21 +2519,24 @@
         <v>1506.819</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>6573</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>5228.532999999999</v>
@@ -2356,21 +2545,24 @@
         <v>1495.467</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>6724</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>10076.98</v>
@@ -2379,21 +2571,24 @@
         <v>2895.02</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>12972</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>4370.513</v>
@@ -2402,21 +2597,24 @@
         <v>1291.487</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>5662</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>477.135</v>
@@ -2425,21 +2623,24 @@
         <v>99.86499999999999</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>416.563</v>
@@ -2448,6 +2649,9 @@
         <v>102.437</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>519</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>1221.442999999999</v>
@@ -2504,21 +2711,24 @@
         <v>25700.557</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>26922</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>554.7870000000003</v>
@@ -2527,21 +2737,24 @@
         <v>4109.213</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>4664</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>827.2170000000006</v>
@@ -2550,21 +2763,24 @@
         <v>21711.783</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>22539</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>807.8669999999984</v>
@@ -2573,21 +2789,24 @@
         <v>21714.133</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>22522</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>775.5159999999996</v>
@@ -2596,21 +2815,24 @@
         <v>21703.484</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>22479</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>1013.309000000001</v>
@@ -2619,21 +2841,24 @@
         <v>25686.691</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>26700</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>628.2020000000002</v>
@@ -2642,6 +2867,9 @@
         <v>4107.798</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>4736</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>33154.668</v>
+        <v>33399.433</v>
       </c>
       <c r="E2">
-        <v>3911.332</v>
+        <v>3666.567</v>
       </c>
       <c r="F2">
         <v>37066</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>53089.98149999999</v>
+        <v>53587.5235</v>
       </c>
       <c r="E3">
-        <v>175875.0185</v>
+        <v>175377.4765</v>
       </c>
       <c r="F3">
         <v>228965</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>530673.0320000002</v>
+        <v>556999.1220000002</v>
       </c>
       <c r="E4">
-        <v>500318.9679999998</v>
+        <v>473992.8779999999</v>
       </c>
       <c r="F4">
         <v>1030992</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>23158.937</v>
+        <v>23303.724</v>
       </c>
       <c r="E5">
-        <v>928.063</v>
+        <v>783.2760000000001</v>
       </c>
       <c r="F5">
         <v>24087</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>81379.795</v>
+        <v>81520.34</v>
       </c>
       <c r="E7">
-        <v>56204.20499999999</v>
+        <v>56063.65999999999</v>
       </c>
       <c r="F7">
         <v>137584</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>87293.40700000001</v>
+        <v>98468.704</v>
       </c>
       <c r="E8">
-        <v>274819.593</v>
+        <v>263644.296</v>
       </c>
       <c r="F8">
         <v>362113</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>50440.72</v>
+        <v>51465.631</v>
       </c>
       <c r="E9">
-        <v>39990.28</v>
+        <v>38965.369</v>
       </c>
       <c r="F9">
         <v>90431</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>266784.6185</v>
+        <v>288387.3165</v>
       </c>
       <c r="E11">
-        <v>395528.3815</v>
+        <v>373925.6835</v>
       </c>
       <c r="F11">
         <v>662313</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>183666.934</v>
+        <v>209973.733</v>
       </c>
       <c r="E12">
-        <v>164237.066</v>
+        <v>137930.267</v>
       </c>
       <c r="F12">
         <v>347904</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>336750.0080000001</v>
+        <v>389102.5650000001</v>
       </c>
       <c r="E13">
-        <v>330839.9919999999</v>
+        <v>278487.4349999999</v>
       </c>
       <c r="F13">
         <v>667590</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>22071.063</v>
       </c>
       <c r="F2">
-        <v>4559.937</v>
+        <v>4422.907</v>
       </c>
       <c r="G2">
+        <v>137.03</v>
+      </c>
+      <c r="H2">
         <v>26631</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1576.965</v>
@@ -3051,21 +3285,24 @@
         <v>1419.035</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2996</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>609.039</v>
@@ -3074,67 +3311,76 @@
         <v>696.961</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1306</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2358.046</v>
       </c>
       <c r="F5">
-        <v>473.954</v>
+        <v>355.134</v>
       </c>
       <c r="G5">
+        <v>118.82</v>
+      </c>
+      <c r="H5">
         <v>2832</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>4190.255999999999</v>
+        <v>4190.256</v>
       </c>
       <c r="F6">
-        <v>2627.744</v>
+        <v>2386.052</v>
       </c>
       <c r="G6">
+        <v>241.692</v>
+      </c>
+      <c r="H6">
         <v>6818</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>4271.202</v>
@@ -3143,21 +3389,24 @@
         <v>4418.798</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>8690</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>5334.4375</v>
@@ -3166,21 +3415,24 @@
         <v>53055.5625</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>58390</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>5116.245999999999</v>
@@ -3189,21 +3441,24 @@
         <v>53059.754</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>58176</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>5148.266000000003</v>
@@ -3212,21 +3467,24 @@
         <v>53084.734</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>58233</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1430.039</v>
@@ -3235,21 +3493,24 @@
         <v>1428.961</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2859</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>508.822</v>
@@ -3258,21 +3519,24 @@
         <v>687.178</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1196</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>475.6</v>
@@ -3281,6 +3545,9 @@
         <v>362.4</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>838</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>18710.638</v>
@@ -3337,21 +3607,24 @@
         <v>3446.362</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>22157</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>4627.690000000001</v>
@@ -3360,21 +3633,24 @@
         <v>3668.31</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>8296</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>4556.281</v>
@@ -3383,21 +3659,24 @@
         <v>3670.719</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>8227</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>3407.746</v>
@@ -3406,21 +3685,24 @@
         <v>3183.254</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>6591</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>537.647</v>
@@ -3429,21 +3711,24 @@
         <v>106.353</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>708.2809999999999</v>
@@ -3452,21 +3737,24 @@
         <v>100.719</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>621.235</v>
@@ -3475,21 +3763,24 @@
         <v>118.765</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>740</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>759.312</v>
@@ -3498,21 +3789,24 @@
         <v>119.688</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>577.921</v>
@@ -3521,21 +3815,24 @@
         <v>120.079</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>698</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>524.558</v>
@@ -3544,44 +3841,50 @@
         <v>122.442</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>21219.127</v>
       </c>
       <c r="F12">
-        <v>13236.873</v>
+        <v>10490.782</v>
       </c>
       <c r="G12">
+        <v>2746.091</v>
+      </c>
+      <c r="H12">
         <v>34456</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>670.872</v>
@@ -3590,21 +3893,24 @@
         <v>123.128</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>5394.77</v>
@@ -3613,21 +3919,24 @@
         <v>10433.23</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>15828</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>5466.385</v>
@@ -3636,21 +3945,24 @@
         <v>10434.615</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>15901</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>5541.691000000001</v>
@@ -3659,21 +3971,24 @@
         <v>10438.309</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>15980</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>565.701</v>
@@ -3682,21 +3997,24 @@
         <v>111.299</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>677</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>673.321</v>
@@ -3705,21 +4023,24 @@
         <v>116.679</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>484.557</v>
@@ -3728,21 +4049,24 @@
         <v>113.443</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>686.9400000000001</v>
@@ -3751,21 +4075,24 @@
         <v>124.06</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>811</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>531.849</v>
@@ -3774,21 +4101,24 @@
         <v>117.151</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>649</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>556.5309999999999</v>
@@ -3797,44 +4127,50 @@
         <v>122.469</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>679</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>39376.699</v>
       </c>
       <c r="F23">
-        <v>26821.301</v>
+        <v>21447.703</v>
       </c>
       <c r="G23">
+        <v>5373.598</v>
+      </c>
+      <c r="H23">
         <v>66198</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>738.129</v>
@@ -3843,21 +4179,24 @@
         <v>116.871</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>855</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>10278.42</v>
@@ -3866,21 +4205,24 @@
         <v>21439.58</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>31718</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>10407.94</v>
@@ -3889,21 +4231,24 @@
         <v>21442.06</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>31850</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>10493.404</v>
@@ -3912,21 +4257,24 @@
         <v>21446.596</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>31940</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>621.28</v>
@@ -3935,21 +4283,24 @@
         <v>114.72</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>657.263</v>
@@ -3958,21 +4309,24 @@
         <v>127.737</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>785</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>458.024</v>
@@ -3981,21 +4335,24 @@
         <v>103.976</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>562</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>677.686</v>
@@ -4004,21 +4361,24 @@
         <v>107.314</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>580.556</v>
@@ -4027,21 +4387,24 @@
         <v>112.444</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>489.27</v>
@@ -4050,44 +4413,50 @@
         <v>126.73</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>17803.24</v>
       </c>
       <c r="F34">
-        <v>5877.76</v>
+        <v>3666.747</v>
       </c>
       <c r="G34">
+        <v>2211.013</v>
+      </c>
+      <c r="H34">
         <v>23681</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>700.2809999999999</v>
@@ -4096,21 +4465,24 @@
         <v>111.719</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>812</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>4331.237999999999</v>
@@ -4119,21 +4491,24 @@
         <v>3766.762</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>8098</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>4385.106</v>
@@ -4142,21 +4517,24 @@
         <v>3716.894</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>8102</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>4459.914000000001</v>
@@ -4165,21 +4543,24 @@
         <v>3720.086</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>8180</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>1317.463</v>
@@ -4188,21 +4569,24 @@
         <v>112.537</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1430</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>571.207</v>
@@ -4211,21 +4595,24 @@
         <v>110.793</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>656.717</v>
@@ -4234,21 +4621,24 @@
         <v>110.283</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>767</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>576.077</v>
@@ -4257,21 +4647,24 @@
         <v>108.923</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>685</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>676.295</v>
@@ -4280,21 +4673,24 @@
         <v>132.705</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>809</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>529.001</v>
@@ -4303,21 +4699,24 @@
         <v>103.999</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>575.29</v>
@@ -4326,21 +4725,24 @@
         <v>114.71</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>690</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>502.594</v>
@@ -4349,21 +4751,24 @@
         <v>111.406</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>614</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>646.688</v>
@@ -4372,21 +4777,24 @@
         <v>109.312</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>756</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>509.928</v>
@@ -4395,21 +4803,24 @@
         <v>113.072</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>556.793</v>
@@ -4418,21 +4829,24 @@
         <v>100.207</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>519.852</v>
@@ -4441,21 +4855,24 @@
         <v>129.148</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>649</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>501.318</v>
@@ -4464,21 +4881,24 @@
         <v>100.682</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>602</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>582.5119999999999</v>
@@ -4487,21 +4907,24 @@
         <v>116.488</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>699</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>669.452</v>
@@ -4510,21 +4933,24 @@
         <v>105.548</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>562.677</v>
@@ -4533,21 +4959,24 @@
         <v>110.323</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>673</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>696.442</v>
@@ -4556,21 +4985,24 @@
         <v>107.558</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>804</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>525.872</v>
@@ -4579,21 +5011,24 @@
         <v>101.128</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>550.003</v>
@@ -4602,21 +5037,24 @@
         <v>99.997</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>532.535</v>
@@ -4625,21 +5063,24 @@
         <v>113.465</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>698.16</v>
@@ -4648,21 +5089,24 @@
         <v>133.84</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>832</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>532.734</v>
@@ -4671,21 +5115,24 @@
         <v>111.266</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>644</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>595.548</v>
@@ -4694,21 +5141,24 @@
         <v>119.452</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>715</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>509.909</v>
@@ -4717,44 +5167,50 @@
         <v>107.091</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
-        <v>4122.918</v>
+        <v>4122.918000000001</v>
       </c>
       <c r="F63">
-        <v>304.082</v>
+        <v>107.097</v>
       </c>
       <c r="G63">
+        <v>196.985</v>
+      </c>
+      <c r="H63">
         <v>4427</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>587.261</v>
@@ -4763,21 +5219,24 @@
         <v>108.739</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>696</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>4570.616</v>
@@ -4786,21 +5245,24 @@
         <v>3444.384</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>8015</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>4568.550999999999</v>
@@ -4809,21 +5271,24 @@
         <v>3661.449</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>8230</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>4492.538</v>
@@ -4832,21 +5297,24 @@
         <v>3660.462</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>8153</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>3412.23</v>
@@ -4855,21 +5323,24 @@
         <v>3228.77</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>6641</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>520.965</v>
@@ -4878,21 +5349,24 @@
         <v>102.035</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>624.848</v>
@@ -4901,21 +5375,24 @@
         <v>97.152</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>722</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>484.924</v>
@@ -4924,21 +5401,24 @@
         <v>98.07599999999999</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>583</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>681.021</v>
@@ -4947,21 +5427,24 @@
         <v>100.979</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>782</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>523.9590000000001</v>
@@ -4970,21 +5453,24 @@
         <v>104.041</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>539.937</v>
@@ -4993,44 +5479,50 @@
         <v>102.063</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>642</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>21579.571</v>
       </c>
       <c r="F75">
-        <v>13268.429</v>
+        <v>10530.967</v>
       </c>
       <c r="G75">
+        <v>2737.462</v>
+      </c>
+      <c r="H75">
         <v>34848</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>692.948</v>
@@ -5039,21 +5531,24 @@
         <v>115.052</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>808</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>5450.162</v>
@@ -5062,21 +5557,24 @@
         <v>10427.838</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>15878</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>5455.434999999999</v>
@@ -5085,21 +5583,24 @@
         <v>10448.565</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>15904</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>5450.462</v>
@@ -5108,21 +5609,24 @@
         <v>10425.538</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>15876</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>5543.673</v>
@@ -5131,21 +5635,24 @@
         <v>3440.327</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>8984</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>4523.895</v>
@@ -5154,21 +5661,24 @@
         <v>3660.105</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>8184</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>4460.205</v>
@@ -5177,21 +5687,24 @@
         <v>3669.795</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>8130</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>6720.866</v>
@@ -5200,21 +5713,24 @@
         <v>11122.134</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>17843</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>541.5840000000001</v>
@@ -5223,21 +5739,24 @@
         <v>113.416</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>655</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>721.042</v>
@@ -5246,21 +5765,24 @@
         <v>117.958</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>839</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>586.501</v>
@@ -5269,21 +5791,24 @@
         <v>105.499</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>702.107</v>
@@ -5292,21 +5817,24 @@
         <v>105.893</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>808</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>526.99</v>
@@ -5315,21 +5843,24 @@
         <v>106.01</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>633</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>520.467</v>
@@ -5338,44 +5869,50 @@
         <v>105.533</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>19266.677</v>
       </c>
       <c r="F90">
-        <v>13214.323</v>
+        <v>10480.434</v>
       </c>
       <c r="G90">
+        <v>2733.889</v>
+      </c>
+      <c r="H90">
         <v>32481</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>706.1900000000001</v>
@@ -5384,21 +5921,24 @@
         <v>113.81</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>820</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>5428.411</v>
@@ -5407,21 +5947,24 @@
         <v>10426.589</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>15855</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>5412.639999999999</v>
@@ -5430,21 +5973,24 @@
         <v>10428.36</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>15841</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>5414.766</v>
@@ -5453,21 +5999,24 @@
         <v>10431.234</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>15846</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>5502.114</v>
@@ -5476,21 +6025,24 @@
         <v>3445.886</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>8948</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>4344.998</v>
@@ -5499,21 +6051,24 @@
         <v>3666.002</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>8011</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>4401.234</v>
@@ -5522,21 +6077,24 @@
         <v>3657.766</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>8059</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>6829.313</v>
@@ -5545,21 +6103,24 @@
         <v>11129.687</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>17959</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>558.354</v>
@@ -5568,21 +6129,24 @@
         <v>114.646</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>673</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>677.2380000000001</v>
@@ -5591,21 +6155,24 @@
         <v>107.762</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>785</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>495.558</v>
@@ -5614,21 +6181,24 @@
         <v>107.442</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>603</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>595.65</v>
@@ -5637,21 +6207,24 @@
         <v>107.35</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>703</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>465.664</v>
@@ -5660,21 +6233,24 @@
         <v>107.336</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>573</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>541.612</v>
@@ -5683,44 +6259,50 @@
         <v>112.388</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>654</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>21363.619</v>
       </c>
       <c r="F105">
-        <v>13222.381</v>
+        <v>10485.345</v>
       </c>
       <c r="G105">
+        <v>2737.036</v>
+      </c>
+      <c r="H105">
         <v>34586</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>772.583</v>
@@ -5729,21 +6311,24 @@
         <v>122.417</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>895</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>5492.079</v>
@@ -5752,21 +6337,24 @@
         <v>10436.921</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>15929</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>5398.767</v>
@@ -5775,21 +6363,24 @@
         <v>10437.233</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>15836</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>5336.209999999999</v>
@@ -5798,21 +6389,24 @@
         <v>10436.79</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>15773</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>5645.587</v>
@@ -5821,21 +6415,24 @@
         <v>3450.413</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>9096</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>4406.285</v>
@@ -5844,21 +6441,24 @@
         <v>3669.715</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>8076</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>4434.577</v>
@@ -5867,21 +6467,24 @@
         <v>3671.423</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>8106</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>7012.413</v>
@@ -5890,21 +6493,24 @@
         <v>11133.587</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>18146</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>572.1659999999999</v>
@@ -5913,21 +6519,24 @@
         <v>116.834</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>689</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>721.956</v>
@@ -5936,21 +6545,24 @@
         <v>121.044</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>843</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>523.552</v>
@@ -5959,21 +6571,24 @@
         <v>116.448</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>640</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>703.101</v>
@@ -5982,21 +6597,24 @@
         <v>112.899</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>816</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>558.3820000000001</v>
@@ -6005,21 +6623,24 @@
         <v>107.618</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>666</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>510.787</v>
@@ -6028,44 +6649,50 @@
         <v>110.213</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>621</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
-        <v>35653.352</v>
+        <v>35653.35200000001</v>
       </c>
       <c r="F120">
-        <v>26818.648</v>
+        <v>21443.764</v>
       </c>
       <c r="G120">
+        <v>5374.884</v>
+      </c>
+      <c r="H120">
         <v>62472</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>786.97</v>
@@ -6074,21 +6701,24 @@
         <v>116.03</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>903</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>10090.717</v>
@@ -6097,21 +6727,24 @@
         <v>21433.283</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>31524</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>17457.93</v>
@@ -6120,21 +6753,24 @@
         <v>21456.07</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>38914</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>10252.352</v>
@@ -6143,21 +6779,24 @@
         <v>21435.648</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>31688</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>569.24</v>
@@ -6166,21 +6805,24 @@
         <v>130.76</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>700</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>678.519</v>
@@ -6189,21 +6831,24 @@
         <v>118.481</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>797</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>504.603</v>
@@ -6212,21 +6857,24 @@
         <v>115.397</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>620</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>641.399</v>
@@ -6235,21 +6883,24 @@
         <v>113.601</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>755</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>492.271</v>
@@ -6258,21 +6909,24 @@
         <v>109.729</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>602</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>550.246</v>
@@ -6281,44 +6935,50 @@
         <v>114.754</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>665</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>13876.304</v>
       </c>
       <c r="F131">
-        <v>5879.696</v>
+        <v>3664.564</v>
       </c>
       <c r="G131">
+        <v>2215.132</v>
+      </c>
+      <c r="H131">
         <v>19756</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>731.058</v>
@@ -6327,21 +6987,24 @@
         <v>136.942</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>868</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>4065.792</v>
@@ -6350,21 +7013,24 @@
         <v>3673.208</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>7739</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>4288.583000000001</v>
@@ -6373,21 +7039,24 @@
         <v>3672.417</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>7961</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>4351.132</v>
@@ -6396,21 +7065,24 @@
         <v>3671.868</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>8023</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>1245.569</v>
@@ -6419,21 +7091,24 @@
         <v>111.431</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>1357</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>542.3</v>
@@ -6442,21 +7117,24 @@
         <v>104.7</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>660.75</v>
@@ -6465,21 +7143,24 @@
         <v>103.25</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>764</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>518.649</v>
@@ -6488,21 +7169,24 @@
         <v>104.351</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>623</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>694.575</v>
@@ -6511,21 +7195,24 @@
         <v>124.425</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>819</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>573.651</v>
@@ -6534,21 +7221,24 @@
         <v>110.349</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>684</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>553.211</v>
@@ -6557,21 +7247,24 @@
         <v>108.789</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>662</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>568.6759999999999</v>
@@ -6580,21 +7273,24 @@
         <v>133.324</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>710.489</v>
@@ -6603,21 +7299,24 @@
         <v>141.511</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>852</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>531.327</v>
@@ -6626,21 +7325,24 @@
         <v>140.673</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>672</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>573.598</v>
@@ -6649,21 +7351,24 @@
         <v>105.402</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>679</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>571.721</v>
@@ -6672,21 +7377,24 @@
         <v>105.279</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>677</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>605.198</v>
@@ -6695,21 +7403,24 @@
         <v>102.802</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>491.65</v>
@@ -6718,21 +7429,24 @@
         <v>103.35</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>595</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>675.4110000000001</v>
@@ -6741,21 +7455,24 @@
         <v>104.589</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>780</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>555.347</v>
@@ -6764,21 +7481,24 @@
         <v>109.653</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>665</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>657.756</v>
@@ -6787,21 +7507,24 @@
         <v>116.244</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>774</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>544.824</v>
@@ -6810,21 +7533,24 @@
         <v>103.176</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>648</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>480.27</v>
@@ -6833,21 +7559,24 @@
         <v>114.73</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>595</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>491.833</v>
@@ -6856,21 +7585,24 @@
         <v>104.167</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>710.133</v>
@@ -6879,21 +7611,24 @@
         <v>104.867</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>815</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>508.75</v>
@@ -6902,21 +7637,24 @@
         <v>103.25</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>612</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>575.005</v>
@@ -6925,21 +7663,24 @@
         <v>108.995</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>684</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>539.032</v>
@@ -6948,21 +7689,24 @@
         <v>103.968</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>643</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>528.11</v>
@@ -6971,6 +7715,9 @@
         <v>103.89</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>632</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>17433.42</v>
       </c>
       <c r="F2">
-        <v>269.58</v>
+        <v>124.793</v>
       </c>
       <c r="G2">
+        <v>144.787</v>
+      </c>
+      <c r="H2">
         <v>17703</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>526.754</v>
@@ -7050,21 +7803,24 @@
         <v>122.246</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>1856.094</v>
@@ -7073,21 +7829,24 @@
         <v>171.906</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2028</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>1686.105</v>
@@ -7096,21 +7855,24 @@
         <v>180.895</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1867</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>1656.564</v>
@@ -7119,6 +7881,9 @@
         <v>183.436</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1840</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>15871.815</v>
@@ -7175,21 +7943,24 @@
         <v>175.185</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>16047</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>605.086</v>
@@ -7198,21 +7969,24 @@
         <v>164.914</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>1460.252</v>
@@ -7221,21 +7995,24 @@
         <v>574.748</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2035</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>1413.053</v>
@@ -7244,21 +8021,24 @@
         <v>579.947</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1993</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>1393.587</v>
@@ -7267,6 +8047,9 @@
         <v>580.413</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1974</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>18825.726</v>
@@ -7323,21 +8109,24 @@
         <v>1891.274</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>20717</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>4514.531</v>
@@ -7346,44 +8135,50 @@
         <v>1890.469</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6405</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>4424.549</v>
       </c>
       <c r="F4">
-        <v>5074.451</v>
+        <v>4933.906</v>
       </c>
       <c r="G4">
+        <v>140.545</v>
+      </c>
+      <c r="H4">
         <v>9499</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>3963.815</v>
@@ -7392,21 +8187,24 @@
         <v>1875.185</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>5839</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>4359.49</v>
@@ -7415,21 +8213,24 @@
         <v>1883.51</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>6243</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>2364.033</v>
@@ -7438,21 +8239,24 @@
         <v>4912.967</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>7277</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>4432.927</v>
@@ -7461,21 +8265,24 @@
         <v>1887.073</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>6320</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>4555.001</v>
@@ -7484,21 +8291,24 @@
         <v>1884.999</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>6440</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>4933.624</v>
@@ -7507,21 +8317,24 @@
         <v>9118.376</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>14052</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>3990.927</v>
@@ -7530,21 +8343,24 @@
         <v>1885.073</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>5876</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>4197.341</v>
@@ -7553,21 +8369,24 @@
         <v>1890.659</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>6088</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>5951.802</v>
@@ -7576,21 +8395,24 @@
         <v>9110.198</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>15062</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>4373.016</v>
@@ -7599,21 +8421,24 @@
         <v>1889.984</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>6263</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>4410.652</v>
@@ -7622,21 +8447,24 @@
         <v>1892.348</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>6303</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>6082.361000000001</v>
@@ -7645,6 +8473,9 @@
         <v>9117.638999999999</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>15200</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>32150.352</v>
       </c>
       <c r="F2">
-        <v>54965.648</v>
+        <v>52679.633</v>
       </c>
       <c r="G2">
+        <v>2286.015</v>
+      </c>
+      <c r="H2">
         <v>87116</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>13746.82000000001</v>
+        <v>13746.82</v>
       </c>
       <c r="F3">
-        <v>54905.17999999999</v>
+        <v>52694.215</v>
       </c>
       <c r="G3">
+        <v>2210.965</v>
+      </c>
+      <c r="H3">
         <v>68652</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>13948.24000000001</v>
+        <v>13948.24</v>
       </c>
       <c r="F4">
-        <v>54953.75999999999</v>
+        <v>52740.664</v>
       </c>
       <c r="G4">
+        <v>2213.096</v>
+      </c>
+      <c r="H4">
         <v>68902</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>13660.769</v>
       </c>
       <c r="F5">
-        <v>54982.231</v>
+        <v>52763.35</v>
       </c>
       <c r="G5">
+        <v>2218.881</v>
+      </c>
+      <c r="H5">
         <v>68643</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>13787.226</v>
       </c>
       <c r="F6">
-        <v>55012.774</v>
+        <v>52766.434</v>
       </c>
       <c r="G6">
+        <v>2246.34</v>
+      </c>
+      <c r="H6">
         <v>68800</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>23466.64</v>
       </c>
       <c r="F2">
-        <v>3189.36</v>
+        <v>2864.249</v>
       </c>
       <c r="G2">
+        <v>325.111</v>
+      </c>
+      <c r="H2">
         <v>26656</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>4145.532999999999</v>
       </c>
       <c r="F3">
-        <v>3008.467</v>
+        <v>2844.868</v>
       </c>
       <c r="G3">
+        <v>163.599</v>
+      </c>
+      <c r="H3">
         <v>7154</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>7495.316000000001</v>
+        <v>7495.316</v>
       </c>
       <c r="F4">
-        <v>11259.684</v>
+        <v>11084.054</v>
       </c>
       <c r="G4">
+        <v>175.63</v>
+      </c>
+      <c r="H4">
         <v>18755</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>7072.24</v>
       </c>
       <c r="F5">
-        <v>11259.76</v>
+        <v>11079.619</v>
       </c>
       <c r="G5">
+        <v>180.141</v>
+      </c>
+      <c r="H5">
         <v>18332</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>8260.991</v>
       </c>
       <c r="F6">
-        <v>11273.009</v>
+        <v>11092.579</v>
       </c>
       <c r="G6">
+        <v>180.43</v>
+      </c>
+      <c r="H6">
         <v>19534</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>21786.054</v>
@@ -7997,21 +8867,24 @@
         <v>2114.946</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>23901</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>2813.265</v>
@@ -8020,21 +8893,24 @@
         <v>2192.735</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5006</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>10794.929</v>
@@ -8043,21 +8919,24 @@
         <v>14640.071</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>25435</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>14032.447</v>
@@ -8066,21 +8945,24 @@
         <v>14648.553</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>28681</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>13900.12</v>
@@ -8089,21 +8971,24 @@
         <v>14689.88</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>28590</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>3835.918</v>
@@ -8112,21 +8997,24 @@
         <v>837.082</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>4673</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>1377.894</v>
@@ -8135,21 +9023,24 @@
         <v>1047.106</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2425</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>1819.706</v>
@@ -8158,6 +9049,9 @@
         <v>1437.294</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>3257</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch2/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch2/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>33399.433</v>
+        <v>33154.668</v>
       </c>
       <c r="E2">
         <v>3666.567</v>
       </c>
       <c r="F2">
+        <v>244.765</v>
+      </c>
+      <c r="G2">
         <v>37066</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>53587.5235</v>
+        <v>53089.9815</v>
       </c>
       <c r="E3">
         <v>175377.4765</v>
       </c>
       <c r="F3">
+        <v>497.542</v>
+      </c>
+      <c r="G3">
         <v>228965</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>556999.1220000002</v>
+        <v>530673.0320000002</v>
       </c>
       <c r="E4">
         <v>473992.8779999999</v>
       </c>
       <c r="F4">
+        <v>26326.09</v>
+      </c>
+      <c r="G4">
         <v>1030992</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>23303.724</v>
+        <v>23158.937</v>
       </c>
       <c r="E5">
         <v>783.2760000000001</v>
       </c>
       <c r="F5">
+        <v>144.787</v>
+      </c>
+      <c r="G5">
         <v>24087</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>2075.207</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>22819</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>81520.34</v>
+        <v>81379.795</v>
       </c>
       <c r="E7">
         <v>56063.65999999999</v>
       </c>
       <c r="F7">
+        <v>140.545</v>
+      </c>
+      <c r="G7">
         <v>137584</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>98468.704</v>
+        <v>87293.40700000001</v>
       </c>
       <c r="E8">
         <v>263644.296</v>
       </c>
       <c r="F8">
+        <v>11175.297</v>
+      </c>
+      <c r="G8">
         <v>362113</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>51465.631</v>
+        <v>50440.72</v>
       </c>
       <c r="E9">
         <v>38965.369</v>
       </c>
       <c r="F9">
+        <v>1024.911</v>
+      </c>
+      <c r="G9">
         <v>90431</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>51607.667</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>121968</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>288387.3165</v>
+        <v>266784.6185</v>
       </c>
       <c r="E11">
         <v>373925.6835</v>
       </c>
       <c r="F11">
+        <v>21602.698</v>
+      </c>
+      <c r="G11">
         <v>662313</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>209973.733</v>
+        <v>183666.934</v>
       </c>
       <c r="E12">
         <v>137930.267</v>
       </c>
       <c r="F12">
+        <v>26306.799</v>
+      </c>
+      <c r="G12">
         <v>347904</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>389102.5650000001</v>
+        <v>336750.0080000001</v>
       </c>
       <c r="E13">
         <v>278487.4349999999</v>
       </c>
       <c r="F13">
+        <v>52352.557</v>
+      </c>
+      <c r="G13">
         <v>667590</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1251.028</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>20216</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>14791.255</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>67115</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>124733.659</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>130562</v>
       </c>
     </row>
